--- a/Classwork/class work.xlsx
+++ b/Classwork/class work.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Keval_tops_testing\Classwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Github\Keval_Testing\Classwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,6 @@
     <sheet name="Defect Report(problem_user)" sheetId="15" r:id="rId14"/>
     <sheet name="Defect Report(performance_)" sheetId="16" r:id="rId15"/>
     <sheet name="Defect Report(locked_out)" sheetId="17" r:id="rId16"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="234">
   <si>
     <t>Function ID</t>
   </si>
@@ -3328,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="A13" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H16"/>
+    <sheetView topLeftCell="A13" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4070,7 +4069,7 @@
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
@@ -4668,44 +4667,20 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="186" x14ac:dyDescent="0.35">
-      <c r="A16" s="38">
-        <v>15</v>
-      </c>
-      <c r="B16" s="39">
-        <v>20</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="J16" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="K16" s="38" t="s">
-        <v>218</v>
-      </c>
+    <row r="16" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="43"/>
-      <c r="M16" s="38" t="s">
-        <v>226</v>
-      </c>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="7:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G17" s="1"/>
@@ -5244,20 +5219,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>

--- a/Classwork/class work.xlsx
+++ b/Classwork/class work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="HLR(standrd_user)" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="testcase(performance_glitch)" sheetId="6" r:id="rId6"/>
     <sheet name="HLR(locked_out_user)" sheetId="8" r:id="rId7"/>
     <sheet name="tescase(locked_out_)" sheetId="9" r:id="rId8"/>
-    <sheet name="test sinariyos(standrd_user)" sheetId="10" r:id="rId9"/>
-    <sheet name="test cinariyos (problem_user)" sheetId="11" r:id="rId10"/>
-    <sheet name="test sinari(performance_glitch)" sheetId="12" r:id="rId11"/>
-    <sheet name="test sinariyos(lock)" sheetId="13" r:id="rId12"/>
+    <sheet name="test scinariyos(standrd_user)" sheetId="10" r:id="rId9"/>
+    <sheet name="test scinariyo (problem_user)" sheetId="11" r:id="rId10"/>
+    <sheet name="test scinar(performance_glitch)" sheetId="12" r:id="rId11"/>
+    <sheet name="test scinariyos(lock)" sheetId="13" r:id="rId12"/>
     <sheet name="Defect Report(Standard_user)" sheetId="14" r:id="rId13"/>
     <sheet name="Defect Report(problem_user)" sheetId="15" r:id="rId14"/>
     <sheet name="Defect Report(performance_)" sheetId="16" r:id="rId15"/>
@@ -2153,7 +2153,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,7 +2711,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3327,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4699,7 +4699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -9631,7 +9631,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Classwork/class work.xlsx
+++ b/Classwork/class work.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="HLR(standrd_user)" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="289">
   <si>
     <t>Function ID</t>
   </si>
@@ -862,12 +862,177 @@
   <si>
     <t>keval patel</t>
   </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MDc-rCMyU65NROaDTM2PILJagaTbyqfy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Hqf43tPVSeGLuE_dby970p0OEKqCR1BZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Sp4rDhySyJTyUtRz-XRcmqZxdd2-RFfh/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1w1BTbND4R9LOvKTyfMHWGLrJE7Mm7dM6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bRx0fCJhcJpBExo5PwFTpFb_Q1GVOjPA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kKILPXbH2gz2GPQinDJHv9quk_jXnM03/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AB5awlWYjJ5hOc5CIhfPApiwuru9GYOG/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PMrFzDzADAYYAKlov4UcdB9SAW0jxMAm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yFEkV77GtLlfnH0wWDalA1sbLT7z4NAW/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1E-ZhN11BOvocQnLpeQdOEJ_yRwO7kSYV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10bSykrZHmT8ahMl-CAW7kxN1JPoqLwL7/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pkB1TwguMiAv56lzQNNAWQ7enRpCN-j0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13Yg1EoYmG90XZKb7D3JlTPH914FhxFLM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oGD-81XA2kdssbduUEAPAZdYhdV3xSvH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XTJTE_yGg2pdT2qNnwcb4dEouPIwMWoR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NdTWoiaCPRrcDGILbNESFzHCP9L8KHEQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dFBG0oPRdKsHTBASBPcgKRy5sMJi-ggT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RIy4_4KORhTpI4GLdSrPlQ32UG3tX2NQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12KvZJkg-TNZXTwpjFcL6UFQRxD6drvVk/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1H2n2GjAy6GpAlDL4Ji_W3CuIRXGvSAmc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sqMoRY5RtXIb12Wqw4VD_9QVZ2RhJitI/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jPUl7VOYaXHcneufzzmtNGYRiQ_P66mK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wBy0ZyaUZIJ79itx0kmJhqpL5aL7IRSX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Fdt92cYTC8t8wUGuwI-T8w-M--mGSSKc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10f2Jv87V_xQR9NazsUWMD27-1CkUiTwq/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZAMXU-Hx1vrzPfRRIdWcPew2RPhivih_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1I4JFvDIG0ACsXsjKZykOgDBZ2q6WVo8h/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xo1r9sQRkaUvdEzW0xS92MQMeU7BoPUq/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OE6puceG3H2ERBbOBcvja0B66RpZewXk/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rqy8ylhFDsa9EcmM5YNAuQmnAyV2CMaI/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_XRj_A6H-RLY9igzyYnDNwItkuX-L3Q0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1B4VUlgKK_gT-XUUc4fEz7ESwgA_VZaxX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Fl8Gj-MYXnelhflLJAewdP7fSlf68djv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZMTXoX1bVTf1FUYx1D7hwEZwClbcATaK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gNunmXCobfquECUhipOb9s08NLjZ4F9Y/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pShGpfdb8iqY6Lig3yzXSjqeSxo27pb-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EgRnyLo1RutOtRJJn9UgCmHmBwg60QWW/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10CP0F8xhP69K5Oxy1lRjhtD0__r6wOQ_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/155EN3MeauzoUtuJegHQnU-b6tHQG9KO0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gLVlCU5uSnKhP4Lsrc7CDdjTiukicnqA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iCVGyDnllZCN8Yqg_maxcjOHdjS_5B1p/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hgyL7dUUSb1Fno5135f977sKOBbHYelv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1v-duRAA__TnuDC03FZ8uyRX2HBhbPLhY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14sMMZQMvIwjLhZOpxAd2gX8Z7UbvGhVT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ed7ufXsappxP-X8qP0vOB1YWebXy_3kB/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tXSH3AYXWFAPQFBGtgzqz1bUA773iGs1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ztQgEGiJN5KH41Rxm9MemO07GNQrVuaF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ze8S4OgO_YTxRDgHLuXv4uSMK4x4VV3D/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KrF29eErUcfttATjJqu_qbWsX_TpQaJo/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JxoHCvcY9vHP0d2SF7UYkswfDJra4Hxd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19qTUcILG9nPQhPNA8TX4k9dB-uFtOhAR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1x_tROJ2TWzxsiFzYlzElyb2gV9J2jY8H/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Bb1l301ML0PlsmzdSwRDJRGJzkz28axJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JFHjC1J4vMiuZFDgfw2rd160gcXyT4vL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jslcrDSKSEdvGLpZj2Llm_QiRslUuSFZ/view?usp=sharing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,6 +1096,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -970,10 +1143,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1113,8 +1287,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2711,7 +2889,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,7 +2983,9 @@
       <c r="K2" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="43"/>
+      <c r="L2" s="51" t="s">
+        <v>234</v>
+      </c>
       <c r="M2" s="38" t="s">
         <v>205</v>
       </c>
@@ -2844,7 +3024,9 @@
       <c r="K3" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="43"/>
+      <c r="L3" s="51" t="s">
+        <v>235</v>
+      </c>
       <c r="M3" s="38" t="s">
         <v>205</v>
       </c>
@@ -2883,7 +3065,9 @@
       <c r="K4" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="51" t="s">
+        <v>236</v>
+      </c>
       <c r="M4" s="38" t="s">
         <v>205</v>
       </c>
@@ -2922,7 +3106,9 @@
       <c r="K5" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L5" s="43"/>
+      <c r="L5" s="51" t="s">
+        <v>237</v>
+      </c>
       <c r="M5" s="38" t="s">
         <v>205</v>
       </c>
@@ -2961,7 +3147,9 @@
       <c r="K6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="51" t="s">
+        <v>238</v>
+      </c>
       <c r="M6" s="38" t="s">
         <v>205</v>
       </c>
@@ -3000,7 +3188,9 @@
       <c r="K7" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L7" s="43"/>
+      <c r="L7" s="51" t="s">
+        <v>239</v>
+      </c>
       <c r="M7" s="38" t="s">
         <v>205</v>
       </c>
@@ -3039,7 +3229,9 @@
       <c r="K8" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L8" s="43"/>
+      <c r="L8" s="51" t="s">
+        <v>240</v>
+      </c>
       <c r="M8" s="38" t="s">
         <v>205</v>
       </c>
@@ -3078,7 +3270,9 @@
       <c r="K9" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L9" s="43"/>
+      <c r="L9" s="51" t="s">
+        <v>241</v>
+      </c>
       <c r="M9" s="38" t="s">
         <v>205</v>
       </c>
@@ -3117,7 +3311,9 @@
       <c r="K10" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L10" s="43"/>
+      <c r="L10" s="51" t="s">
+        <v>242</v>
+      </c>
       <c r="M10" s="38" t="s">
         <v>205</v>
       </c>
@@ -3156,7 +3352,9 @@
       <c r="K11" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L11" s="43"/>
+      <c r="L11" s="51" t="s">
+        <v>243</v>
+      </c>
       <c r="M11" s="38" t="s">
         <v>205</v>
       </c>
@@ -3195,7 +3393,9 @@
       <c r="K12" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L12" s="43"/>
+      <c r="L12" s="51" t="s">
+        <v>244</v>
+      </c>
       <c r="M12" s="38" t="s">
         <v>205</v>
       </c>
@@ -3234,7 +3434,9 @@
       <c r="K13" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L13" s="43"/>
+      <c r="L13" s="51" t="s">
+        <v>245</v>
+      </c>
       <c r="M13" s="38" t="s">
         <v>205</v>
       </c>
@@ -3273,7 +3475,9 @@
       <c r="K14" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L14" s="43"/>
+      <c r="L14" s="51" t="s">
+        <v>246</v>
+      </c>
       <c r="M14" s="38" t="s">
         <v>205</v>
       </c>
@@ -3312,14 +3516,32 @@
       <c r="K15" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L15" s="43"/>
+      <c r="L15" s="51" t="s">
+        <v>247</v>
+      </c>
       <c r="M15" s="38" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -3327,8 +3549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H12"/>
+    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,7 +3644,9 @@
       <c r="K2" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="43"/>
+      <c r="L2" s="51" t="s">
+        <v>248</v>
+      </c>
       <c r="M2" s="38" t="s">
         <v>205</v>
       </c>
@@ -3461,7 +3685,9 @@
       <c r="K3" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L3" s="43"/>
+      <c r="L3" s="51" t="s">
+        <v>249</v>
+      </c>
       <c r="M3" s="38" t="s">
         <v>205</v>
       </c>
@@ -3500,7 +3726,9 @@
       <c r="K4" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="51" t="s">
+        <v>250</v>
+      </c>
       <c r="M4" s="38" t="s">
         <v>205</v>
       </c>
@@ -3539,7 +3767,9 @@
       <c r="K5" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="43"/>
+      <c r="L5" s="51" t="s">
+        <v>251</v>
+      </c>
       <c r="M5" s="38" t="s">
         <v>205</v>
       </c>
@@ -3578,7 +3808,9 @@
       <c r="K6" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="51" t="s">
+        <v>252</v>
+      </c>
       <c r="M6" s="38" t="s">
         <v>205</v>
       </c>
@@ -3617,7 +3849,9 @@
       <c r="K7" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="43"/>
+      <c r="L7" s="51" t="s">
+        <v>253</v>
+      </c>
       <c r="M7" s="38" t="s">
         <v>205</v>
       </c>
@@ -3656,7 +3890,9 @@
       <c r="K8" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L8" s="43"/>
+      <c r="L8" s="51" t="s">
+        <v>254</v>
+      </c>
       <c r="M8" s="38" t="s">
         <v>205</v>
       </c>
@@ -3695,7 +3931,9 @@
       <c r="K9" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L9" s="43"/>
+      <c r="L9" s="51" t="s">
+        <v>255</v>
+      </c>
       <c r="M9" s="38" t="s">
         <v>205</v>
       </c>
@@ -3734,7 +3972,9 @@
       <c r="K10" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L10" s="43"/>
+      <c r="L10" s="51" t="s">
+        <v>256</v>
+      </c>
       <c r="M10" s="38" t="s">
         <v>205</v>
       </c>
@@ -3773,7 +4013,9 @@
       <c r="K11" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L11" s="43"/>
+      <c r="L11" s="51" t="s">
+        <v>257</v>
+      </c>
       <c r="M11" s="38" t="s">
         <v>205</v>
       </c>
@@ -3812,7 +4054,9 @@
       <c r="K12" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L12" s="43"/>
+      <c r="L12" s="51" t="s">
+        <v>258</v>
+      </c>
       <c r="M12" s="38" t="s">
         <v>205</v>
       </c>
@@ -3851,7 +4095,9 @@
       <c r="K13" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L13" s="43"/>
+      <c r="L13" s="51" t="s">
+        <v>259</v>
+      </c>
       <c r="M13" s="38" t="s">
         <v>205</v>
       </c>
@@ -3890,7 +4136,9 @@
       <c r="K14" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L14" s="43"/>
+      <c r="L14" s="51" t="s">
+        <v>260</v>
+      </c>
       <c r="M14" s="38" t="s">
         <v>205</v>
       </c>
@@ -3929,7 +4177,9 @@
       <c r="K15" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L15" s="43"/>
+      <c r="L15" s="51" t="s">
+        <v>261</v>
+      </c>
       <c r="M15" s="38" t="s">
         <v>205</v>
       </c>
@@ -3968,12 +4218,14 @@
       <c r="K16" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L16" s="43"/>
+      <c r="L16" s="51" t="s">
+        <v>262</v>
+      </c>
       <c r="M16" s="38" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="116.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="139.5" x14ac:dyDescent="0.4">
       <c r="A17" s="38">
         <v>16</v>
       </c>
@@ -4007,12 +4259,14 @@
       <c r="K17" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L17" s="43"/>
+      <c r="L17" s="51" t="s">
+        <v>263</v>
+      </c>
       <c r="M17" s="38" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="139.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="162.75" x14ac:dyDescent="0.4">
       <c r="A18" s="38">
         <v>17</v>
       </c>
@@ -4046,12 +4300,33 @@
       <c r="K18" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="L18" s="43"/>
+      <c r="L18" s="51" t="s">
+        <v>264</v>
+      </c>
       <c r="M18" s="38" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4060,8 +4335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A14" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4076,7 +4351,7 @@
     <col min="9" max="9" width="24.140625" customWidth="1"/>
     <col min="10" max="10" width="28.140625" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4155,7 +4430,9 @@
       <c r="K2" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="43"/>
+      <c r="L2" s="51" t="s">
+        <v>265</v>
+      </c>
       <c r="M2" s="38" t="s">
         <v>226</v>
       </c>
@@ -4194,7 +4471,9 @@
       <c r="K3" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L3" s="43"/>
+      <c r="L3" s="51" t="s">
+        <v>266</v>
+      </c>
       <c r="M3" s="38" t="s">
         <v>226</v>
       </c>
@@ -4233,7 +4512,9 @@
       <c r="K4" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="51" t="s">
+        <v>267</v>
+      </c>
       <c r="M4" s="38" t="s">
         <v>226</v>
       </c>
@@ -4272,7 +4553,9 @@
       <c r="K5" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="43"/>
+      <c r="L5" s="51" t="s">
+        <v>268</v>
+      </c>
       <c r="M5" s="38" t="s">
         <v>226</v>
       </c>
@@ -4311,7 +4594,9 @@
       <c r="K6" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="51" t="s">
+        <v>269</v>
+      </c>
       <c r="M6" s="38" t="s">
         <v>226</v>
       </c>
@@ -4350,7 +4635,9 @@
       <c r="K7" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="43"/>
+      <c r="L7" s="51" t="s">
+        <v>270</v>
+      </c>
       <c r="M7" s="38" t="s">
         <v>226</v>
       </c>
@@ -4389,7 +4676,9 @@
       <c r="K8" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L8" s="43"/>
+      <c r="L8" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="M8" s="38" t="s">
         <v>226</v>
       </c>
@@ -4428,7 +4717,9 @@
       <c r="K9" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L9" s="43"/>
+      <c r="L9" s="51" t="s">
+        <v>272</v>
+      </c>
       <c r="M9" s="38" t="s">
         <v>226</v>
       </c>
@@ -4467,7 +4758,9 @@
       <c r="K10" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L10" s="43"/>
+      <c r="L10" s="51" t="s">
+        <v>273</v>
+      </c>
       <c r="M10" s="38" t="s">
         <v>226</v>
       </c>
@@ -4506,7 +4799,9 @@
       <c r="K11" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L11" s="43"/>
+      <c r="L11" s="51" t="s">
+        <v>274</v>
+      </c>
       <c r="M11" s="38" t="s">
         <v>226</v>
       </c>
@@ -4545,12 +4840,14 @@
       <c r="K12" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L12" s="43"/>
+      <c r="L12" s="51" t="s">
+        <v>275</v>
+      </c>
       <c r="M12" s="38" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="186" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="209.25" x14ac:dyDescent="0.35">
       <c r="A13" s="38">
         <v>12</v>
       </c>
@@ -4584,12 +4881,14 @@
       <c r="K13" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L13" s="43"/>
+      <c r="L13" s="51" t="s">
+        <v>276</v>
+      </c>
       <c r="M13" s="38" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="209.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="232.5" x14ac:dyDescent="0.35">
       <c r="A14" s="38">
         <v>13</v>
       </c>
@@ -4623,12 +4922,14 @@
       <c r="K14" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L14" s="43"/>
+      <c r="L14" s="51" t="s">
+        <v>277</v>
+      </c>
       <c r="M14" s="38" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="186" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="232.5" x14ac:dyDescent="0.35">
       <c r="A15" s="38">
         <v>14</v>
       </c>
@@ -4662,7 +4963,9 @@
       <c r="K15" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="L15" s="43"/>
+      <c r="L15" s="51" t="s">
+        <v>278</v>
+      </c>
       <c r="M15" s="38" t="s">
         <v>226</v>
       </c>
@@ -4691,6 +4994,22 @@
       <c r="H18" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4699,8 +5018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4795,7 +5114,9 @@
       <c r="K2" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="51" t="s">
+        <v>279</v>
+      </c>
       <c r="M2" s="38" t="s">
         <v>205</v>
       </c>
@@ -4834,7 +5155,9 @@
       <c r="K3" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L3" s="38"/>
+      <c r="L3" s="51" t="s">
+        <v>280</v>
+      </c>
       <c r="M3" s="38" t="s">
         <v>205</v>
       </c>
@@ -4873,7 +5196,9 @@
       <c r="K4" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="51" t="s">
+        <v>281</v>
+      </c>
       <c r="M4" s="38" t="s">
         <v>205</v>
       </c>
@@ -4912,7 +5237,9 @@
       <c r="K5" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L5" s="38"/>
+      <c r="L5" s="51" t="s">
+        <v>282</v>
+      </c>
       <c r="M5" s="38" t="s">
         <v>205</v>
       </c>
@@ -4951,7 +5278,9 @@
       <c r="K6" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L6" s="38"/>
+      <c r="L6" s="51" t="s">
+        <v>283</v>
+      </c>
       <c r="M6" s="38" t="s">
         <v>205</v>
       </c>
@@ -4990,7 +5319,9 @@
       <c r="K7" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="51" t="s">
+        <v>284</v>
+      </c>
       <c r="M7" s="38" t="s">
         <v>205</v>
       </c>
@@ -5029,7 +5360,9 @@
       <c r="K8" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="51" t="s">
+        <v>285</v>
+      </c>
       <c r="M8" s="38" t="s">
         <v>205</v>
       </c>
@@ -5068,7 +5401,9 @@
       <c r="K9" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="51" t="s">
+        <v>286</v>
+      </c>
       <c r="M9" s="38" t="s">
         <v>205</v>
       </c>
@@ -5107,7 +5442,9 @@
       <c r="K10" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="51" t="s">
+        <v>286</v>
+      </c>
       <c r="M10" s="38" t="s">
         <v>205</v>
       </c>
@@ -5146,7 +5483,9 @@
       <c r="K11" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="51" t="s">
+        <v>287</v>
+      </c>
       <c r="M11" s="38" t="s">
         <v>205</v>
       </c>
@@ -5185,7 +5524,9 @@
       <c r="K12" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="51" t="s">
+        <v>288</v>
+      </c>
       <c r="M12" s="38" t="s">
         <v>205</v>
       </c>
@@ -5215,6 +5556,19 @@
       <c r="H16" s="50"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
